--- a/Model-skill-format.xlsx
+++ b/Model-skill-format.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>postSD</t>
   </si>
@@ -49,13 +49,16 @@
   </si>
   <si>
     <t>GBM-BRT</t>
+  </si>
+  <si>
+    <t>Accuracy (no-hardware)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -77,6 +80,22 @@
       <name val="Monaco"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -95,8 +114,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -104,7 +125,9 @@
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -434,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -568,8 +591,63 @@
         <v>6.1816074603693002E-4</v>
       </c>
     </row>
+    <row r="11" spans="1:6" ht="16">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2.41384543875235E-4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.93861400949845E-4</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6.4704108569168503E-5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3.5088714876131998E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16">
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.86674321086865602</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.93753459464324496</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.98882538685931498</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.98219927059363099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6.5489817825213604E-4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>9.32764393615043E-4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>8.9032502386840104E-4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>6.1816074603693002E-4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Model-skill-format.xlsx
+++ b/Model-skill-format.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="960" windowWidth="24640" windowHeight="16580" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="800" yWindow="0" windowWidth="24640" windowHeight="16580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,9 +121,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -460,188 +460,221 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F13" sqref="A1:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>0.120345179706617</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>6.3668205625103794E-2</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>1.41227562192163E-2</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <v>0.81117496831763103</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16">
-      <c r="B3" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>0.92412985128950398</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>0.96122725359074501</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>0.48228811956263101</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>0.42760037243514498</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16">
-      <c r="B4" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>3.4021045759996503E-2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>3.7574807520773801E-2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>1.02917680868892E-2</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>9.0674623610266306E-2</v>
       </c>
     </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
     <row r="6" spans="1:6" ht="16">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>2.74734027868146E-4</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>1.8980456401912599E-4</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>6.2031731151735499E-5</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>3.5088714876131998E-5</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16">
-      <c r="B7" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>0.86048418376553804</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>0.935478125041597</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>0.98947790031107996</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="3">
         <v>0.98219927059363099</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16">
-      <c r="B8" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>1.2599600263501899E-3</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <v>1.76008207136959E-3</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="3">
         <v>8.9966315364021295E-4</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="3">
         <v>6.1816074603693002E-4</v>
       </c>
     </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
     <row r="11" spans="1:6" ht="16">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>2.41384543875235E-4</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <v>1.93861400949845E-4</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>6.4704108569168503E-5</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>3.5088714876131998E-5</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16">
-      <c r="B12" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>0.86674321086865602</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="3">
         <v>0.93753459464324496</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="3">
         <v>0.98882538685931498</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="3">
         <v>0.98219927059363099</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16">
-      <c r="B13" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <v>6.5489817825213604E-4</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <v>9.32764393615043E-4</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="3">
         <v>8.9032502386840104E-4</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="3">
         <v>6.1816074603693002E-4</v>
       </c>
     </row>
